--- a/ReactJS/React-Topics.xlsx
+++ b/ReactJS/React-Topics.xlsx
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ReactJS/React-Topics.xlsx
+++ b/ReactJS/React-Topics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>React topics on a high level:</t>
   </si>
@@ -91,6 +91,29 @@
   </si>
   <si>
     <t>Antd/Bootstrap</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>1. React is open source JS library and not JS framework used to create interactive UI for web and mobile &amp; desktop applications
+2. React I found in 2011 by facebook used t create fb and instagram in 2012.
+3. React is mad opensource in 2013 by FB.
+4. We can import react as any other js library inside component and use its features like render(), etc.
+5. REACT, REACT-DOM (uses document browser api to get and update real dom).
+6. We can use any different build tools like: Webpack,Uglify,npm,Babel,babel-preset-env etc , as per project needs.
+7. We can use any testing tools like: ESLint,Enzyme,Mocha/Jest as per project needs.
+8. Framework brings and puts all the required files or code at its respective places and comes with builtin features like router,testing,and it has its own design pattern.
+9. Next.js is ReactJS framework comes with router,serverside-rendering,image optimization we can do all of this in only ReactJS too but need to write some extra more code.</t>
   </si>
 </sst>
 </file>
@@ -134,14 +157,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,208 +461,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="290" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>

--- a/ReactJS/React-Topics.xlsx
+++ b/ReactJS/React-Topics.xlsx
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ReactJS/React-Topics.xlsx
+++ b/ReactJS/React-Topics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>React topics on a high level:</t>
   </si>
@@ -114,6 +114,12 @@
 7. We can use any testing tools like: ESLint,Enzyme,Mocha/Jest as per project needs.
 8. Framework brings and puts all the required files or code at its respective places and comes with builtin features like router,testing,and it has its own design pattern.
 9. Next.js is ReactJS framework comes with router,serverside-rendering,image optimization we can do all of this in only ReactJS too but need to write some extra more code.</t>
+  </si>
+  <si>
+    <t>it is compiler used to compile JSX to native JS or ES5</t>
+  </si>
+  <si>
+    <t>latest features in react are functional components over class based components</t>
   </si>
 </sst>
 </file>
@@ -463,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +523,9 @@
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -529,7 +537,9 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
